--- a/counts_loglikelihood_filter1.xlsx
+++ b/counts_loglikelihood_filter1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Neutralisierung</t>
   </si>
@@ -29,84 +29,6 @@
     <t>X4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>studierende</t>
   </si>
   <si>
@@ -117,6 +39,72 @@
   </si>
   <si>
     <t>schreibende</t>
+  </si>
+  <si>
+    <t>NA.</t>
+  </si>
+  <si>
+    <t>NA..1</t>
+  </si>
+  <si>
+    <t>NA..2</t>
+  </si>
+  <si>
+    <t>NA..3</t>
+  </si>
+  <si>
+    <t>NA..4</t>
+  </si>
+  <si>
+    <t>NA..5</t>
+  </si>
+  <si>
+    <t>NA..6</t>
+  </si>
+  <si>
+    <t>NA..7</t>
+  </si>
+  <si>
+    <t>NA..8</t>
+  </si>
+  <si>
+    <t>NA..9</t>
+  </si>
+  <si>
+    <t>NA..10</t>
+  </si>
+  <si>
+    <t>NA..11</t>
+  </si>
+  <si>
+    <t>NA..12</t>
+  </si>
+  <si>
+    <t>NA..13</t>
+  </si>
+  <si>
+    <t>NA..14</t>
+  </si>
+  <si>
+    <t>NA..15</t>
+  </si>
+  <si>
+    <t>NA..16</t>
+  </si>
+  <si>
+    <t>NA..17</t>
+  </si>
+  <si>
+    <t>NA..18</t>
+  </si>
+  <si>
+    <t>NA..19</t>
+  </si>
+  <si>
+    <t>NA..20</t>
+  </si>
+  <si>
+    <t>NA..21</t>
   </si>
   <si>
     <t>erzählende</t>
@@ -256,7 +244,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>29.80281171583053</v>
@@ -276,7 +264,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>9.23412169506408</v>
@@ -296,7 +284,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>32.43395029721041</v>
@@ -316,7 +304,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>12.973580118884161</v>
@@ -336,7 +324,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" t="e">
         <v>#N/A</v>
@@ -356,7 +344,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" t="e">
         <v>#N/A</v>
@@ -376,7 +364,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" t="e">
         <v>#N/A</v>
@@ -396,7 +384,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" t="e">
         <v>#N/A</v>
@@ -416,7 +404,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="e">
         <v>#N/A</v>
@@ -436,7 +424,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" t="e">
         <v>#N/A</v>
@@ -456,7 +444,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" t="e">
         <v>#N/A</v>
@@ -476,7 +464,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" t="e">
         <v>#N/A</v>
@@ -496,7 +484,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" t="e">
         <v>#N/A</v>
@@ -516,7 +504,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" t="e">
         <v>#N/A</v>
@@ -536,7 +524,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" t="e">
         <v>#N/A</v>
@@ -556,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" t="e">
         <v>#N/A</v>
@@ -576,7 +564,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" t="e">
         <v>#N/A</v>
@@ -596,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" t="e">
         <v>#N/A</v>
@@ -616,7 +604,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" t="e">
         <v>#N/A</v>
@@ -636,7 +624,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" t="e">
         <v>#N/A</v>
@@ -656,7 +644,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C22" t="e">
         <v>#N/A</v>
@@ -676,7 +664,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" t="e">
         <v>#N/A</v>
@@ -696,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" t="e">
         <v>#N/A</v>
@@ -716,7 +704,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" t="e">
         <v>#N/A</v>
@@ -736,7 +724,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" t="e">
         <v>#N/A</v>
@@ -756,7 +744,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C27" t="e">
         <v>#N/A</v>
